--- a/InputFiles/CDS/TC21_CDS_Filter_PHSAccession-phs002517_Tumor_normal.xlsx
+++ b/InputFiles/CDS/TC21_CDS_Filter_PHSAccession-phs002517_Tumor_normal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation0829\Commons_Automation\InputFiles\CDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\Sowjanya0320\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B7801E-18F6-4030-B361-AAE25BEB93B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF87AB-3726-48A0-A325-2FC1FC557210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -243,93 +243,6 @@
 	data.sample_id AS `Sample Id`,
 	data.file_type AS `File Type`
 ORDER BY `File Name`
-LIMIT 100</t>
-  </si>
-  <si>
-    <t>WITH {
-    phs_accession: "phs002517",
-    subject_ids: [],
-    experimental_strategies: [],
-    genders: [],
-    sample_tumor_statuses: ["Normal"],
-    file_types: [],
-    library_strategies: [],
-    library_sources: [],
-    library_selections: [],
-    library_layouts: [],
-    platforms: [],
-    instrument_models: [],
-    reference_genome_assemblies: [],
-    primary_diagnoses: [],
-    num_study_samples_min: 0,
-    num_study_samples_max: 0,
-    num_study_participants_max: 0,
-    num_study_participants_min: 0
-} AS inputs, "Not specified in data" AS na
-MATCH (s:study {phs_accession: inputs.phs_accession})
-OPTIONAL MATCH (s)&lt;--(p:participant)
-WITH inputs, na, s, count(distinct p) AS num_p
-WHERE
-    (inputs.num_study_participants_min = 0 OR num_p &gt;= inputs.num_study_participants_min) AND
-    (inputs.num_study_participants_max = 0 OR num_p &lt;= inputs.num_study_participants_max)
-OPTIONAL MATCH (s)&lt;--(:participant)&lt;--(samp:sample)
-WITH inputs, na, s, count(distinct samp) AS num_samp
-WHERE
-    (inputs.num_study_samples_min = 0 OR num_samp &gt;= inputs.num_study_samples_min) AND
-    (inputs.num_study_participants_max = 0 OR num_samp &lt;= inputs.num_study_participants_max)
-MATCH (s)&lt;--(p:participant)
-WITH inputs, na, p, {
-	participant_id: coalesce(p.participant_id, ""),
-	study_name: coalesce(s.study_name, ""),
-	accession: coalesce(s.phs_accession, ""),
-	gender: coalesce(p.gender, "")
-} AS data
-WHERE 
-    (size(inputs.subject_ids) = 0 OR p.participant_id IN inputs.subject_ids) AND
-    (size(inputs.genders) = 0 OR p.gender IN inputs.genders)
-OPTIONAL MATCH (p)&lt;--(samp:sample)
-WITH inputs, na, p, apoc.map.merge(data, {
-		samples: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ""), "")
-	}) AS data,
-	COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_statuses
-WHERE
-    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_statuses)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(f:file)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT f.file_type) AS file_types, 
-	apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
-WHERE
-    (size(inputs.experimental_strategies) = 0 OR size(apoc.coll.intersection(inputs.experimental_strategies, experimental_strategies)) &gt; 0) AND
-    (size(inputs.file_types) = 0 OR size(apoc.coll.intersection(inputs.file_types, file_types)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(:file)&lt;--(g:genomic_info)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT g.library_strategy) AS library_strategy,
-	COLLECT(DISTINCT g.library_source) AS library_source,
-	COLLECT(DISTINCT g.library_selection) AS library_selection,
-	COLLECT(DISTINCT g.library_layout) AS library_layout,
-	COLLECT(DISTINCT g.platform) AS platform,
-	COLLECT(DISTINCT g.instrument_model) AS instrument_models,
-	COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
-WHERE
-    (size(inputs.library_strategies) = 0 OR size(apoc.coll.intersection(inputs.library_strategies, library_strategy)) &gt; 0) AND
-    (size(inputs.library_sources) = 0 OR size(apoc.coll.intersection(inputs.library_sources, library_source)) &gt; 0) AND 
-    (size(inputs.library_selections) = 0 OR size(apoc.coll.intersection(inputs.library_selections, library_selection)) &gt; 0) AND
-    (size(inputs.library_layouts) = 0 OR size(apoc.coll.intersection(inputs.library_layouts, library_layout)) &gt; 0) AND
-    (size(inputs.platforms) = 0 OR size(apoc.coll.intersection(inputs.platforms, platform)) &gt; 0) AND
-    (size(inputs.instrument_models) = 0 OR size(apoc.coll.intersection(inputs.instrument_models, instrument_models)) &gt; 0) AND
-    (size(inputs.reference_genome_assemblies) = 0 OR size(apoc.coll.intersection(inputs.reference_genome_assemblies, reference_genome_assembly)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
-WHERE
-    (size(inputs.primary_diagnoses) = 0 OR size(apoc.coll.intersection(inputs.primary_diagnoses, primary_diagnosis)) &gt; 0)
-RETURN 
-	data.participant_id AS `Participant ID`,
-	data.study_name AS `Study Name`,
-	data.accession AS `Accession`,
-	data.gender AS `Gender`,
-	data.samples AS `Samples`
-ORDER BY `Participant ID`
 LIMIT 100</t>
   </si>
   <si>
@@ -527,6 +440,93 @@
     num_participants AS Participants,
     num_samples AS Samples,
     num_files AS `Files`</t>
+  </si>
+  <si>
+    <t>WITH {
+    phs_accession: "phs002517",
+    subject_ids: [],
+    experimental_strategies: [],
+    genders: [],
+    sample_tumor_statuses: ["Normal"],
+    file_types: [],
+    library_strategies: [],
+    library_sources: [],
+    library_selections: [],
+    library_layouts: [],
+    platforms: [],
+    instrument_models: [],
+    reference_genome_assemblies: [],
+    primary_diagnoses: [],
+    num_study_samples_min: 0,
+    num_study_samples_max: 0,
+    num_study_participants_max: 0,
+    num_study_participants_min: 0
+} AS inputs, "Not specified in data" AS na
+MATCH (s:study {phs_accession: inputs.phs_accession})
+OPTIONAL MATCH (s)&lt;--(p:participant)
+WITH inputs, na, s, count(distinct p) AS num_p
+WHERE
+    (inputs.num_study_participants_min = 0 OR num_p &gt;= inputs.num_study_participants_min) AND
+    (inputs.num_study_participants_max = 0 OR num_p &lt;= inputs.num_study_participants_max)
+OPTIONAL MATCH (s)&lt;--(:participant)&lt;--(samp:sample)
+WITH inputs, na, s, count(distinct samp) AS num_samp
+WHERE
+    (inputs.num_study_samples_min = 0 OR num_samp &gt;= inputs.num_study_samples_min) AND
+    (inputs.num_study_participants_max = 0 OR num_samp &lt;= inputs.num_study_participants_max)
+MATCH (s)&lt;--(p:participant)
+WITH inputs, na, p, {
+	participant_id: coalesce(p.participant_id, ""),
+	study_name: coalesce(s.study_name, ""),
+	accession: coalesce(s.phs_accession, ""),
+	gender: coalesce(p.gender, "")
+} AS data
+WHERE 
+    (size(inputs.subject_ids) = 0 OR p.participant_id IN inputs.subject_ids) AND
+    (size(inputs.genders) = 0 OR p.gender IN inputs.genders)
+OPTIONAL MATCH (p)&lt;--(samp:sample)
+WITH inputs, na, p, apoc.map.merge(data, {
+		samples: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ", "), "")
+	}) AS data,
+	COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_statuses
+WHERE
+    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_statuses)) &gt; 0)
+OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(f:file)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT f.file_type) AS file_types, 
+	apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
+WHERE
+    (size(inputs.experimental_strategies) = 0 OR size(apoc.coll.intersection(inputs.experimental_strategies, experimental_strategies)) &gt; 0) AND
+    (size(inputs.file_types) = 0 OR size(apoc.coll.intersection(inputs.file_types, file_types)) &gt; 0)
+OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(:file)&lt;--(g:genomic_info)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT g.library_strategy) AS library_strategy,
+	COLLECT(DISTINCT g.library_source) AS library_source,
+	COLLECT(DISTINCT g.library_selection) AS library_selection,
+	COLLECT(DISTINCT g.library_layout) AS library_layout,
+	COLLECT(DISTINCT g.platform) AS platform,
+	COLLECT(DISTINCT g.instrument_model) AS instrument_models,
+	COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
+WHERE
+    (size(inputs.library_strategies) = 0 OR size(apoc.coll.intersection(inputs.library_strategies, library_strategy)) &gt; 0) AND
+    (size(inputs.library_sources) = 0 OR size(apoc.coll.intersection(inputs.library_sources, library_source)) &gt; 0) AND 
+    (size(inputs.library_selections) = 0 OR size(apoc.coll.intersection(inputs.library_selections, library_selection)) &gt; 0) AND
+    (size(inputs.library_layouts) = 0 OR size(apoc.coll.intersection(inputs.library_layouts, library_layout)) &gt; 0) AND
+    (size(inputs.platforms) = 0 OR size(apoc.coll.intersection(inputs.platforms, platform)) &gt; 0) AND
+    (size(inputs.instrument_models) = 0 OR size(apoc.coll.intersection(inputs.instrument_models, instrument_models)) &gt; 0) AND
+    (size(inputs.reference_genome_assemblies) = 0 OR size(apoc.coll.intersection(inputs.reference_genome_assemblies, reference_genome_assembly)) &gt; 0)
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
+WHERE
+    (size(inputs.primary_diagnoses) = 0 OR size(apoc.coll.intersection(inputs.primary_diagnoses, primary_diagnosis)) &gt; 0)
+RETURN 
+	data.participant_id AS `Participant ID`,
+	data.study_name AS `Study Name`,
+	data.accession AS `Accession`,
+	data.gender AS `Gender`,
+	data.samples AS `Samples`
+ORDER BY `Participant ID`
+LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -906,20 +906,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.69140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.3046875" style="1" customWidth="1"/>
     <col min="5" max="5" width="80" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="6" max="16384" width="9.07421875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,15 +936,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -953,7 +953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -961,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -970,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -987,11 +987,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="C6" s="2"/>
     </row>
   </sheetData>

--- a/InputFiles/CDS/TC21_CDS_Filter_PHSAccession-phs002517_Tumor_normal.xlsx
+++ b/InputFiles/CDS/TC21_CDS_Filter_PHSAccession-phs002517_Tumor_normal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation\Sowjanya0320\Commons_Automation\InputFiles\CDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kallakuriv2\Automation0829\Commons_Automation\InputFiles\CDS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FF87AB-3726-48A0-A325-2FC1FC557210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B7801E-18F6-4030-B361-AAE25BEB93B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -243,6 +243,93 @@
 	data.sample_id AS `Sample Id`,
 	data.file_type AS `File Type`
 ORDER BY `File Name`
+LIMIT 100</t>
+  </si>
+  <si>
+    <t>WITH {
+    phs_accession: "phs002517",
+    subject_ids: [],
+    experimental_strategies: [],
+    genders: [],
+    sample_tumor_statuses: ["Normal"],
+    file_types: [],
+    library_strategies: [],
+    library_sources: [],
+    library_selections: [],
+    library_layouts: [],
+    platforms: [],
+    instrument_models: [],
+    reference_genome_assemblies: [],
+    primary_diagnoses: [],
+    num_study_samples_min: 0,
+    num_study_samples_max: 0,
+    num_study_participants_max: 0,
+    num_study_participants_min: 0
+} AS inputs, "Not specified in data" AS na
+MATCH (s:study {phs_accession: inputs.phs_accession})
+OPTIONAL MATCH (s)&lt;--(p:participant)
+WITH inputs, na, s, count(distinct p) AS num_p
+WHERE
+    (inputs.num_study_participants_min = 0 OR num_p &gt;= inputs.num_study_participants_min) AND
+    (inputs.num_study_participants_max = 0 OR num_p &lt;= inputs.num_study_participants_max)
+OPTIONAL MATCH (s)&lt;--(:participant)&lt;--(samp:sample)
+WITH inputs, na, s, count(distinct samp) AS num_samp
+WHERE
+    (inputs.num_study_samples_min = 0 OR num_samp &gt;= inputs.num_study_samples_min) AND
+    (inputs.num_study_participants_max = 0 OR num_samp &lt;= inputs.num_study_participants_max)
+MATCH (s)&lt;--(p:participant)
+WITH inputs, na, p, {
+	participant_id: coalesce(p.participant_id, ""),
+	study_name: coalesce(s.study_name, ""),
+	accession: coalesce(s.phs_accession, ""),
+	gender: coalesce(p.gender, "")
+} AS data
+WHERE 
+    (size(inputs.subject_ids) = 0 OR p.participant_id IN inputs.subject_ids) AND
+    (size(inputs.genders) = 0 OR p.gender IN inputs.genders)
+OPTIONAL MATCH (p)&lt;--(samp:sample)
+WITH inputs, na, p, apoc.map.merge(data, {
+		samples: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ""), "")
+	}) AS data,
+	COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_statuses
+WHERE
+    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_statuses)) &gt; 0)
+OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(f:file)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT f.file_type) AS file_types, 
+	apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
+WHERE
+    (size(inputs.experimental_strategies) = 0 OR size(apoc.coll.intersection(inputs.experimental_strategies, experimental_strategies)) &gt; 0) AND
+    (size(inputs.file_types) = 0 OR size(apoc.coll.intersection(inputs.file_types, file_types)) &gt; 0)
+OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(:file)&lt;--(g:genomic_info)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT g.library_strategy) AS library_strategy,
+	COLLECT(DISTINCT g.library_source) AS library_source,
+	COLLECT(DISTINCT g.library_selection) AS library_selection,
+	COLLECT(DISTINCT g.library_layout) AS library_layout,
+	COLLECT(DISTINCT g.platform) AS platform,
+	COLLECT(DISTINCT g.instrument_model) AS instrument_models,
+	COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
+WHERE
+    (size(inputs.library_strategies) = 0 OR size(apoc.coll.intersection(inputs.library_strategies, library_strategy)) &gt; 0) AND
+    (size(inputs.library_sources) = 0 OR size(apoc.coll.intersection(inputs.library_sources, library_source)) &gt; 0) AND 
+    (size(inputs.library_selections) = 0 OR size(apoc.coll.intersection(inputs.library_selections, library_selection)) &gt; 0) AND
+    (size(inputs.library_layouts) = 0 OR size(apoc.coll.intersection(inputs.library_layouts, library_layout)) &gt; 0) AND
+    (size(inputs.platforms) = 0 OR size(apoc.coll.intersection(inputs.platforms, platform)) &gt; 0) AND
+    (size(inputs.instrument_models) = 0 OR size(apoc.coll.intersection(inputs.instrument_models, instrument_models)) &gt; 0) AND
+    (size(inputs.reference_genome_assemblies) = 0 OR size(apoc.coll.intersection(inputs.reference_genome_assemblies, reference_genome_assembly)) &gt; 0)
+OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
+WITH inputs, na, p, data,
+	COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
+WHERE
+    (size(inputs.primary_diagnoses) = 0 OR size(apoc.coll.intersection(inputs.primary_diagnoses, primary_diagnosis)) &gt; 0)
+RETURN 
+	data.participant_id AS `Participant ID`,
+	data.study_name AS `Study Name`,
+	data.accession AS `Accession`,
+	data.gender AS `Gender`,
+	data.samples AS `Samples`
+ORDER BY `Participant ID`
 LIMIT 100</t>
   </si>
   <si>
@@ -440,93 +527,6 @@
     num_participants AS Participants,
     num_samples AS Samples,
     num_files AS `Files`</t>
-  </si>
-  <si>
-    <t>WITH {
-    phs_accession: "phs002517",
-    subject_ids: [],
-    experimental_strategies: [],
-    genders: [],
-    sample_tumor_statuses: ["Normal"],
-    file_types: [],
-    library_strategies: [],
-    library_sources: [],
-    library_selections: [],
-    library_layouts: [],
-    platforms: [],
-    instrument_models: [],
-    reference_genome_assemblies: [],
-    primary_diagnoses: [],
-    num_study_samples_min: 0,
-    num_study_samples_max: 0,
-    num_study_participants_max: 0,
-    num_study_participants_min: 0
-} AS inputs, "Not specified in data" AS na
-MATCH (s:study {phs_accession: inputs.phs_accession})
-OPTIONAL MATCH (s)&lt;--(p:participant)
-WITH inputs, na, s, count(distinct p) AS num_p
-WHERE
-    (inputs.num_study_participants_min = 0 OR num_p &gt;= inputs.num_study_participants_min) AND
-    (inputs.num_study_participants_max = 0 OR num_p &lt;= inputs.num_study_participants_max)
-OPTIONAL MATCH (s)&lt;--(:participant)&lt;--(samp:sample)
-WITH inputs, na, s, count(distinct samp) AS num_samp
-WHERE
-    (inputs.num_study_samples_min = 0 OR num_samp &gt;= inputs.num_study_samples_min) AND
-    (inputs.num_study_participants_max = 0 OR num_samp &lt;= inputs.num_study_participants_max)
-MATCH (s)&lt;--(p:participant)
-WITH inputs, na, p, {
-	participant_id: coalesce(p.participant_id, ""),
-	study_name: coalesce(s.study_name, ""),
-	accession: coalesce(s.phs_accession, ""),
-	gender: coalesce(p.gender, "")
-} AS data
-WHERE 
-    (size(inputs.subject_ids) = 0 OR p.participant_id IN inputs.subject_ids) AND
-    (size(inputs.genders) = 0 OR p.gender IN inputs.genders)
-OPTIONAL MATCH (p)&lt;--(samp:sample)
-WITH inputs, na, p, apoc.map.merge(data, {
-		samples: coalesce(apoc.text.join(apoc.coll.sort(collect(distinct samp.sample_id)), ", "), "")
-	}) AS data,
-	COLLECT(DISTINCT samp.sample_tumor_status) AS sample_tumor_statuses
-WHERE
-    (size(inputs.sample_tumor_statuses) = 0 OR size(apoc.coll.intersection(inputs.sample_tumor_statuses, sample_tumor_statuses)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(f:file)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT f.file_type) AS file_types, 
-	apoc.coll.toSet(apoc.text.split(f.experimental_strategy_and_data_subtypes,"[;,]\\s{0,1}")) AS experimental_strategies
-WHERE
-    (size(inputs.experimental_strategies) = 0 OR size(apoc.coll.intersection(inputs.experimental_strategies, experimental_strategies)) &gt; 0) AND
-    (size(inputs.file_types) = 0 OR size(apoc.coll.intersection(inputs.file_types, file_types)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(:sample)&lt;--(:file)&lt;--(g:genomic_info)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT g.library_strategy) AS library_strategy,
-	COLLECT(DISTINCT g.library_source) AS library_source,
-	COLLECT(DISTINCT g.library_selection) AS library_selection,
-	COLLECT(DISTINCT g.library_layout) AS library_layout,
-	COLLECT(DISTINCT g.platform) AS platform,
-	COLLECT(DISTINCT g.instrument_model) AS instrument_models,
-	COLLECT(DISTINCT g.reference_genome_assembly) AS reference_genome_assembly
-WHERE
-    (size(inputs.library_strategies) = 0 OR size(apoc.coll.intersection(inputs.library_strategies, library_strategy)) &gt; 0) AND
-    (size(inputs.library_sources) = 0 OR size(apoc.coll.intersection(inputs.library_sources, library_source)) &gt; 0) AND 
-    (size(inputs.library_selections) = 0 OR size(apoc.coll.intersection(inputs.library_selections, library_selection)) &gt; 0) AND
-    (size(inputs.library_layouts) = 0 OR size(apoc.coll.intersection(inputs.library_layouts, library_layout)) &gt; 0) AND
-    (size(inputs.platforms) = 0 OR size(apoc.coll.intersection(inputs.platforms, platform)) &gt; 0) AND
-    (size(inputs.instrument_models) = 0 OR size(apoc.coll.intersection(inputs.instrument_models, instrument_models)) &gt; 0) AND
-    (size(inputs.reference_genome_assemblies) = 0 OR size(apoc.coll.intersection(inputs.reference_genome_assemblies, reference_genome_assembly)) &gt; 0)
-OPTIONAL MATCH (p)&lt;--(diag:diagnosis)
-WITH inputs, na, p, data,
-	COLLECT(DISTINCT diag.primary_diagnosis) AS primary_diagnosis
-WHERE
-    (size(inputs.primary_diagnoses) = 0 OR size(apoc.coll.intersection(inputs.primary_diagnoses, primary_diagnosis)) &gt; 0)
-RETURN 
-	data.participant_id AS `Participant ID`,
-	data.study_name AS `Study Name`,
-	data.accession AS `Accession`,
-	data.gender AS `Gender`,
-	data.samples AS `Samples`
-ORDER BY `Participant ID`
-LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -906,20 +906,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.3046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.69140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.3046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="80" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.07421875" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,15 +936,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -953,7 +953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -961,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -970,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -987,11 +987,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
     </row>
   </sheetData>
